--- a/biology/Médecine/Pierre_Salomon_Ségalas/Pierre_Salomon_Ségalas.xlsx
+++ b/biology/Médecine/Pierre_Salomon_Ségalas/Pierre_Salomon_Ségalas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Salomon_S%C3%A9galas</t>
+          <t>Pierre_Salomon_Ségalas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Salomon Ségalas d’Etchepare, né le 1er août 1792 à Saint-Palais (Basses Pyrénées) et mort le 19 octobre 1875 à Saint-Vallerin (Saône-et-Loire), était un chercheur et urologue français, membre de l’Académie de médecine, conseiller général de la Seine et conseiller municipal de Paris[1].
-Il est l'inventeur, en 1826, du «spéculum uréthro-cystique», un des premiers véritables endoscopes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Salomon Ségalas d’Etchepare, né le 1er août 1792 à Saint-Palais (Basses Pyrénées) et mort le 19 octobre 1875 à Saint-Vallerin (Saône-et-Loire), était un chercheur et urologue français, membre de l’Académie de médecine, conseiller général de la Seine et conseiller municipal de Paris.
+Il est l'inventeur, en 1826, du «spéculum uréthro-cystique», un des premiers véritables endoscopes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Salomon_S%C3%A9galas</t>
+          <t>Pierre_Salomon_Ségalas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Né en août 1792 à Saint-Palais, un bourg des Basses Pyrénées, Pierre Salomon Ségalas d'Etchepare étudie la médecine à Paris avant de soutenir sa thèse "Quelques réflexions sur la certitude et l'utilité de la Médecine" en 1817. Il devient ensuite professeur associé à la faculté de médecine de Paris en 1823. Peu après, il rejoint l'Académie de Médecine[3].
-En 1829, il épouse Palmyre "Augustine" Ribollet à Paris[3].
-En 1875, il décède à l'âge de 83 ans, avant d'être enterré au cimetière du Père-Lachaise[1],[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Né en août 1792 à Saint-Palais, un bourg des Basses Pyrénées, Pierre Salomon Ségalas d'Etchepare étudie la médecine à Paris avant de soutenir sa thèse "Quelques réflexions sur la certitude et l'utilité de la Médecine" en 1817. Il devient ensuite professeur associé à la faculté de médecine de Paris en 1823. Peu après, il rejoint l'Académie de Médecine.
+En 1829, il épouse Palmyre "Augustine" Ribollet à Paris.
+En 1875, il décède à l'âge de 83 ans, avant d'être enterré au cimetière du Père-Lachaise,.</t>
         </is>
       </c>
     </row>
